--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -12491,7 +12491,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16820,7 +16820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="7">
         <v>110</v>
@@ -16895,7 +16895,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="7">
         <v>120</v>
@@ -16912,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D7" s="7">
         <v>130</v>
@@ -16946,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D9" s="7">
         <v>150</v>
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="7">
         <v>160</v>
@@ -16980,7 +16980,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="7">
         <v>170</v>
@@ -16997,7 +16997,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="D12" s="7">
         <v>180</v>
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="7">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D13" s="7">
         <v>190</v>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="D14" s="7">
         <v>200</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -109,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -12497,7 +12497,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16899,7 +16899,7 @@
         <v>110</v>
       </c>
       <c r="F5" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -16919,7 +16919,7 @@
         <v>120</v>
       </c>
       <c r="F6" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16939,7 +16939,7 @@
         <v>130</v>
       </c>
       <c r="F7" s="7">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -16959,7 +16959,7 @@
         <v>140</v>
       </c>
       <c r="F8" s="7">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16999,7 +16999,7 @@
         <v>160</v>
       </c>
       <c r="F10" s="7">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -17019,7 +17019,7 @@
         <v>170</v>
       </c>
       <c r="F11" s="7">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -17059,7 +17059,7 @@
         <v>190</v>
       </c>
       <c r="F13" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -17079,7 +17079,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
         <v>110</v>
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
         <v>110</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F13" sqref="F13"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16890,16 +16890,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -16910,10 +16910,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="7">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
         <v>120</v>
@@ -16933,13 +16933,13 @@
         <v>8000</v>
       </c>
       <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
-        <v>130</v>
-      </c>
       <c r="F7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -16953,10 +16953,10 @@
         <v>5000</v>
       </c>
       <c r="D8" s="7">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7">
         <v>100</v>
@@ -16973,7 +16973,7 @@
         <v>6000</v>
       </c>
       <c r="D9" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>150</v>
@@ -16993,13 +16993,13 @@
         <v>8000</v>
       </c>
       <c r="D10" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -17013,7 +17013,7 @@
         <v>10000</v>
       </c>
       <c r="D11" s="7">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7">
         <v>170</v>
@@ -17033,13 +17033,13 @@
         <v>10000</v>
       </c>
       <c r="D12" s="7">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F12" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -17053,13 +17053,13 @@
         <v>12000</v>
       </c>
       <c r="D13" s="7">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -17073,7 +17073,7 @@
         <v>18000</v>
       </c>
       <c r="D14" s="7">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E14" s="7">
         <v>200</v>
@@ -17093,10 +17093,10 @@
         <v>20000</v>
       </c>
       <c r="D15" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
         <v>200</v>
@@ -17113,13 +17113,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E16" s="7">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -17133,13 +17133,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E17" s="7">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16822,11 +16822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I17"/>
+  <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16899,7 +16899,7 @@
         <v>120</v>
       </c>
       <c r="F5" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -16919,7 +16919,7 @@
         <v>120</v>
       </c>
       <c r="F6" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16933,13 +16933,13 @@
         <v>8000</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>10</v>
       </c>
       <c r="F7" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -16959,7 +16959,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16970,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -16979,7 +16979,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -16999,7 +16999,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -17019,7 +17019,7 @@
         <v>170</v>
       </c>
       <c r="F11" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -17039,7 +17039,7 @@
         <v>200</v>
       </c>
       <c r="F12" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -17053,13 +17053,13 @@
         <v>12000</v>
       </c>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -17070,7 +17070,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="D14" s="7">
         <v>25</v>
@@ -17079,7 +17079,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D15" s="7">
         <v>100</v>
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -17119,7 +17119,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -17139,7 +17139,207 @@
         <v>150</v>
       </c>
       <c r="F17" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
+        <v>4001</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
+        <v>4002</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7">
+        <v>4003</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7">
+        <v>4004</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
         <v>100</v>
+      </c>
+      <c r="E21" s="7">
+        <v>120</v>
+      </c>
+      <c r="F21" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7">
+        <v>4005</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
+        <v>4006</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7">
+        <v>30</v>
+      </c>
+      <c r="F23" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
+        <v>4007</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7">
+        <v>4008</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7">
+        <v>200</v>
+      </c>
+      <c r="F25" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7">
+        <v>4009</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7">
+        <v>4010</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>100</v>
+      </c>
+      <c r="E27" s="7">
+        <v>200</v>
+      </c>
+      <c r="F27" s="7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
@@ -16959,7 +16959,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16979,7 +16979,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -17013,7 +17013,7 @@
         <v>8000</v>
       </c>
       <c r="D11" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7">
         <v>170</v>
@@ -17033,13 +17033,13 @@
         <v>10000</v>
       </c>
       <c r="D12" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E12" s="7">
         <v>200</v>
       </c>
       <c r="F12" s="7">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -17053,13 +17053,13 @@
         <v>12000</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -17073,7 +17073,7 @@
         <v>15000</v>
       </c>
       <c r="D14" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E14" s="7">
         <v>200</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E18" s="7">
         <v>120</v>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E19" s="7">
         <v>120</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7">
         <v>10</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E21" s="7">
         <v>120</v>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7">
         <v>150</v>
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E23" s="7">
         <v>30</v>
@@ -17273,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E24" s="7">
         <v>170</v>
@@ -17293,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E25" s="7">
         <v>200</v>
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="7">
         <v>15</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="7">
         <v>200</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="7">
         <v>10</v>
@@ -16919,7 +16919,7 @@
         <v>120</v>
       </c>
       <c r="F6" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16930,10 +16930,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>20</v>
@@ -16959,7 +16959,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -16999,7 +16999,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -17013,13 +17013,13 @@
         <v>8000</v>
       </c>
       <c r="D11" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7">
         <v>170</v>
       </c>
       <c r="F11" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -17030,10 +17030,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="D12" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7">
         <v>200</v>
@@ -17053,13 +17053,13 @@
         <v>12000</v>
       </c>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7">
         <v>20</v>
       </c>
       <c r="F13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -17070,10 +17070,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="D14" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7">
         <v>200</v>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
         <v>100</v>
@@ -17159,7 +17159,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -17179,7 +17179,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -17219,7 +17219,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -17239,7 +17239,7 @@
         <v>150</v>
       </c>
       <c r="F22" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -17259,7 +17259,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -17299,7 +17299,7 @@
         <v>200</v>
       </c>
       <c r="F25" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -17319,7 +17319,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -17339,7 +17339,7 @@
         <v>200</v>
       </c>
       <c r="F27" s="7">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16899,7 +16899,7 @@
         <v>120</v>
       </c>
       <c r="F5" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -16919,7 +16919,7 @@
         <v>120</v>
       </c>
       <c r="F6" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -17019,7 +17019,7 @@
         <v>170</v>
       </c>
       <c r="F11" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -17039,7 +17039,7 @@
         <v>200</v>
       </c>
       <c r="F12" s="7">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -17059,7 +17059,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -17079,7 +17079,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -17119,7 +17119,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -17139,7 +17139,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -17239,7 +17239,7 @@
         <v>150</v>
       </c>
       <c r="F22" s="7">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -17279,7 +17279,7 @@
         <v>170</v>
       </c>
       <c r="F24" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -17299,7 +17299,7 @@
         <v>200</v>
       </c>
       <c r="F25" s="7">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -17339,7 +17339,7 @@
         <v>200</v>
       </c>
       <c r="F27" s="7">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17133,13 +17133,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E17" s="7">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E19" s="7">
         <v>120</v>
@@ -17193,10 +17193,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7">
         <v>5</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E21" s="7">
         <v>120</v>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E22" s="7">
         <v>150</v>
@@ -17253,10 +17253,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7">
         <v>20</v>
@@ -17273,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E24" s="7">
         <v>170</v>
@@ -17293,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E25" s="7">
         <v>200</v>
@@ -17313,10 +17313,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E26" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7">
         <v>5</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E27" s="7">
         <v>200</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16893,7 +16893,7 @@
         <v>2000</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7">
         <v>120</v>
@@ -16913,7 +16913,7 @@
         <v>1200</v>
       </c>
       <c r="D6" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7">
         <v>120</v>
@@ -16933,7 +16933,7 @@
         <v>10000</v>
       </c>
       <c r="D7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7">
         <v>20</v>
@@ -16993,13 +16993,13 @@
         <v>10000</v>
       </c>
       <c r="D10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <v>30</v>
       </c>
       <c r="F10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="7">
         <v>15</v>
@@ -16930,7 +16930,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="7">
         <v>5</v>
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="7">
         <v>20</v>
@@ -16970,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="D10" s="7">
         <v>6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="D11" s="7">
         <v>50</v>
@@ -17030,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D12" s="7">
         <v>50</v>
@@ -17050,7 +17050,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="7">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="D13" s="7">
         <v>10</v>
@@ -17070,7 +17070,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="D14" s="7">
         <v>50</v>
@@ -17090,16 +17090,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -17219,7 +17219,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="7">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -17239,7 +17239,7 @@
         <v>150</v>
       </c>
       <c r="F22" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -17259,7 +17259,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -17279,7 +17279,7 @@
         <v>170</v>
       </c>
       <c r="F24" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -17299,7 +17299,7 @@
         <v>200</v>
       </c>
       <c r="F25" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6">

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17093,10 +17093,10 @@
         <v>1000</v>
       </c>
       <c r="D15" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
         <v>100</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -17159,7 +17159,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -17179,7 +17179,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -17219,7 +17219,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6">

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17119,7 +17119,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -17133,13 +17133,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E17" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E18" s="7">
         <v>120</v>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E19" s="7">
         <v>120</v>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7">
         <v>150</v>
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7">
         <v>100</v>
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E26" s="7">
         <v>100</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16826,7 +16826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16893,7 +16893,7 @@
         <v>2000</v>
       </c>
       <c r="D5" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7">
         <v>120</v>
@@ -16913,13 +16913,13 @@
         <v>1500</v>
       </c>
       <c r="D6" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7">
         <v>120</v>
       </c>
       <c r="F6" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16933,7 +16933,7 @@
         <v>12000</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <v>20</v>
@@ -16950,10 +16950,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7">
         <v>120</v>
@@ -16970,10 +16970,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
         <v>150</v>
@@ -16993,7 +16993,7 @@
         <v>13000</v>
       </c>
       <c r="D10" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7">
         <v>30</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="D11" s="7">
         <v>50</v>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>

--- a/Client/配置表/excels/SkillAttrBase.xlsx
+++ b/Client/配置表/excels/SkillAttrBase.xlsx
@@ -16824,9 +16824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16930,7 +16930,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="7">
         <v>8</v>
@@ -16970,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="7">
         <v>5</v>
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="7">
         <v>50</v>
